--- a/tests/fixtures/tc_small_A.xlsx
+++ b/tests/fixtures/tc_small_A.xlsx
@@ -490,7 +490,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/04/01 09:00:40</t>
+          <t>2025/04/01 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>張惠君</t>
+          <t>洪心怡</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -520,36 +520,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
+          <t>買書</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>12600</v>
+        <v>49200</v>
       </c>
       <c r="K2" t="n">
-        <v>512600</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>000000234053</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>李郁婷</t>
-        </is>
-      </c>
+        <v>549200</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/04/01 09:01:47</t>
+          <t>2025/04/01 09:01:07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,7 +556,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>陳美玲</t>
+          <t>陳建宏</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -579,20 +571,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>手續費</t>
-        </is>
-      </c>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1700</v>
+        <v>31200</v>
       </c>
       <c r="K3" t="n">
-        <v>514300</v>
+        <v>580400</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -600,7 +588,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/04/01 09:02:13</t>
+          <t>2025/04/01 09:02:14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -615,7 +603,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>吳嘉玲</t>
+          <t>廖冠志</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -630,20 +618,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>28800</v>
-      </c>
+          <t>Foodpanda</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>543100</v>
+        <v>564400</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -651,7 +639,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/04/01 09:03:41</t>
+          <t>2025/04/01 09:03:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -666,7 +654,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>蔡建志</t>
+          <t>張俊宏</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,16 +669,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>代繳水費</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>繳房租</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>15100</v>
+        <v>1500</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>528000</v>
+        <v>562900</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -698,7 +690,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/04/01 09:04:00</t>
+          <t>2025/04/01 09:04:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -713,7 +705,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>李冠宇</t>
+          <t>王建宏</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -733,15 +725,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>買書</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>14300</v>
+        <v>5000</v>
       </c>
       <c r="K6" t="n">
-        <v>542300</v>
+        <v>567900</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -749,7 +741,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/04/01 09:05:48</t>
+          <t>2025/04/01 09:05:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -764,7 +756,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>鄭美惠</t>
+          <t>邱家豪</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -779,36 +771,28 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>還款</t>
+          <t>自動扣繳</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>9800</v>
+        <v>15300</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>532500</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>000000101414</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>鄭承翰</t>
-        </is>
-      </c>
+        <v>552600</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/04/01 09:06:16</t>
+          <t>2025/04/01 09:06:42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -823,7 +807,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>謝美玲</t>
+          <t>賴志明</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -841,13 +825,17 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>還款</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>6400</v>
+        <v>2600</v>
       </c>
       <c r="K8" t="n">
-        <v>538900</v>
+        <v>555200</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -855,7 +843,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/04/01 09:07:35</t>
+          <t>2025/04/01 09:07:49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -870,7 +858,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>吳嘉玲</t>
+          <t>蔡冠志</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -885,20 +873,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>14800</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>繳房租</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15200</v>
+      </c>
       <c r="K9" t="n">
-        <v>524100</v>
+        <v>570400</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -906,7 +894,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/04/01 09:08:04</t>
+          <t>2025/04/01 09:08:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -921,7 +909,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>張志偉</t>
+          <t>賴佩君</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,36 +924,28 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PChome</t>
+          <t>聚餐</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>4100</v>
+        <v>43900</v>
       </c>
       <c r="K10" t="n">
-        <v>528200</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>000000896865</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>劉承翰</t>
-        </is>
-      </c>
+        <v>614300</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/04/01 09:09:17</t>
+          <t>2025/04/01 09:09:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -980,7 +960,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>鄭冠宇</t>
+          <t>許欣怡</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -995,20 +975,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>繳房租</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>9500</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>跨行提款</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>40300</v>
+      </c>
       <c r="K11" t="n">
-        <v>518700</v>
+        <v>654600</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1016,7 +992,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/04/01 09:10:42</t>
+          <t>2025/04/01 09:10:20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1031,7 +1007,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>洪志偉</t>
+          <t>許志明</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1046,36 +1022,28 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>繳房租</t>
+          <t>買書</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>13700</v>
+        <v>2100</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>505000</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>000000764544</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>劉雅婷</t>
-        </is>
-      </c>
+        <v>652500</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/04/01 09:11:17</t>
+          <t>2025/04/01 09:11:27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1090,7 +1058,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>林建志</t>
+          <t>徐美玲</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1105,20 +1073,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>11800</v>
-      </c>
+          <t>繳房租</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>17300</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>516800</v>
+        <v>635200</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1126,7 +1094,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/04/01 09:12:20</t>
+          <t>2025/04/01 09:12:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1141,7 +1109,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>賴冠志</t>
+          <t>鄭嘉玲</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,20 +1124,16 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>網購扣款</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>46100</v>
+      </c>
       <c r="K14" t="n">
-        <v>511300</v>
+        <v>681300</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1177,7 +1141,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/04/01 09:13:45</t>
+          <t>2025/04/01 09:13:41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1192,7 +1156,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>洪俊傑</t>
+          <t>徐詩涵</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1207,16 +1171,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>501100</v>
+        <v>670600</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1224,7 +1188,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/04/01 09:14:16</t>
+          <t>2025/04/01 09:14:48</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1239,7 +1203,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>賴志偉</t>
+          <t>黃承翰</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1254,32 +1218,28 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>27600</v>
+        <v>33100</v>
       </c>
       <c r="K16" t="n">
-        <v>528700</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>000000275504</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>賴承恩</t>
-        </is>
-      </c>
+        <v>703700</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/04/01 09:15:23</t>
+          <t>2025/04/01 09:15:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1294,7 +1254,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>黃詩涵</t>
+          <t>廖承恩</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1309,16 +1269,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PChome</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>25300</v>
+        <v>5600</v>
       </c>
       <c r="K17" t="n">
-        <v>554000</v>
+        <v>709300</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1326,7 +1290,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/04/01 09:16:03</t>
+          <t>2025/04/01 09:16:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1341,7 +1305,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>郭美惠</t>
+          <t>陳淑芬</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,20 +1320,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>繳房租</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>40600</v>
-      </c>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3800</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>594600</v>
+        <v>705500</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1377,7 +1341,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/04/01 09:17:04</t>
+          <t>2025/04/01 09:17:19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1392,7 +1356,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>蔡怡君</t>
+          <t>許淑芬</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1407,16 +1371,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>代繳水費</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>13600</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>39600</v>
+      </c>
       <c r="K19" t="n">
-        <v>581000</v>
+        <v>745100</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1424,7 +1392,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/04/01 09:18:00</t>
+          <t>2025/04/01 09:18:26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1439,7 +1407,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>許淑芬</t>
+          <t>謝美玲</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1454,20 +1422,16 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>39400</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>8800</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>620400</v>
+        <v>736300</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1475,7 +1439,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/04/01 09:19:18</t>
+          <t>2025/04/01 09:19:33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1490,7 +1454,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>蔡建宏</t>
+          <t>謝冠宇</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1505,16 +1469,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>100</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>跨行提款</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>43400</v>
+      </c>
       <c r="K21" t="n">
-        <v>620300</v>
+        <v>779700</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1522,7 +1490,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/04/01 09:20:48</t>
+          <t>2025/04/01 09:20:40</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1537,7 +1505,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>楊俊宏</t>
+          <t>謝心怡</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,20 +1520,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>44600</v>
-      </c>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8400</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>664900</v>
+        <v>771300</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1573,7 +1541,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/04/01 09:21:40</t>
+          <t>2025/04/01 09:21:47</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1588,7 +1556,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>王怡君</t>
+          <t>吳嘉玲</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1606,17 +1574,13 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>39100</v>
+        <v>9200</v>
       </c>
       <c r="K23" t="n">
-        <v>704000</v>
+        <v>780500</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1624,7 +1588,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/04/01 09:22:49</t>
+          <t>2025/04/01 09:22:04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1639,7 +1603,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>陳淑芬</t>
+          <t>鄭冠宇</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1654,20 +1618,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>PChome</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>25100</v>
+        <v>11400</v>
       </c>
       <c r="K24" t="n">
-        <v>729100</v>
+        <v>791900</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1675,7 +1639,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/04/01 09:23:23</t>
+          <t>2025/04/01 09:23:11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1690,7 +1654,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>賴美玲</t>
+          <t>林宜君</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1705,20 +1669,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>6200</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>自動扣繳</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11600</v>
+      </c>
       <c r="K25" t="n">
-        <v>722900</v>
+        <v>803500</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1726,7 +1690,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/04/01 09:24:05</t>
+          <t>2025/04/01 09:24:18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1741,7 +1705,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>曾怡君</t>
+          <t>廖承翰</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1759,29 +1723,25 @@
           <t>跨行提款</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>19700</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1300</v>
+      </c>
       <c r="K26" t="n">
-        <v>703200</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>000000131869</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>李惠君</t>
-        </is>
-      </c>
+        <v>804800</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/04/01 09:25:10</t>
+          <t>2025/04/01 09:25:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1796,7 +1756,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>廖詩涵</t>
+          <t>劉俊傑</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1811,20 +1771,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>5500</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>Foodpanda</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13500</v>
+      </c>
       <c r="K27" t="n">
-        <v>697700</v>
+        <v>818300</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1832,7 +1792,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/04/01 09:26:46</t>
+          <t>2025/04/01 09:26:32</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1847,7 +1807,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>鄭宜君</t>
+          <t>陳淑芬</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1862,20 +1822,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>34400</v>
-      </c>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>6400</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>732100</v>
+        <v>811900</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1883,7 +1843,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/04/01 09:27:33</t>
+          <t>2025/04/01 09:27:39</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1898,7 +1858,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>賴怡君</t>
+          <t>謝承恩</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1918,31 +1878,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>測試備註</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>5800</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10300</v>
+      </c>
       <c r="K29" t="n">
-        <v>726300</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>000000067136</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>許豪</t>
-        </is>
-      </c>
+        <v>822200</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/04/01 09:28:14</t>
+          <t>2025/04/01 09:28:46</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1957,7 +1909,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>黃冠志</t>
+          <t>張欣怡</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1977,31 +1929,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>還款</t>
+          <t>繳房租</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>36300</v>
+        <v>19300</v>
       </c>
       <c r="K30" t="n">
-        <v>762600</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>000000661759</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>林宗翰</t>
-        </is>
-      </c>
+        <v>841500</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/04/01 09:29:02</t>
+          <t>2025/04/01 09:29:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2016,7 +1960,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>廖俊傑</t>
+          <t>廖淑惠</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2031,32 +1975,24 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>6100</v>
+        <v>3500</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>756500</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>000000292004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>曾冠宇</t>
-        </is>
-      </c>
+        <v>838000</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/04/01 09:30:46</t>
+          <t>2025/04/01 09:30:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2071,7 +2007,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>吳淑芬</t>
+          <t>林美玲</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2086,16 +2022,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>10500</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>薪資轉帳</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12200</v>
+      </c>
       <c r="K32" t="n">
-        <v>746000</v>
+        <v>850200</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2103,7 +2043,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/04/01 09:31:06</t>
+          <t>2025/04/01 09:31:17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2118,7 +2058,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>洪承翰</t>
+          <t>黃雅雯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2133,20 +2073,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>代繳電費</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>蝦皮購物</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>10600</v>
+        <v>16600</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>735400</v>
+        <v>833600</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2154,7 +2094,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/04/01 09:32:46</t>
+          <t>2025/04/01 09:32:24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2169,7 +2109,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>張宗翰</t>
+          <t>陳郁婷</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,36 +2124,28 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>20700</v>
-      </c>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>5800</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>756100</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>000000763587</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>許建志</t>
-        </is>
-      </c>
+        <v>827800</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/04/01 09:33:12</t>
+          <t>2025/04/01 09:33:31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2228,7 +2160,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>郭雅婷</t>
+          <t>賴惠君</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2243,16 +2175,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>7200</v>
+        <v>14700</v>
       </c>
       <c r="K35" t="n">
-        <v>763300</v>
+        <v>842500</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2260,7 +2196,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/04/01 09:34:17</t>
+          <t>2025/04/01 09:34:38</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2275,7 +2211,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>廖淑芬</t>
+          <t>楊宇軒</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2290,20 +2226,16 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>還款</t>
-        </is>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>11400</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>751900</v>
+        <v>831100</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2311,7 +2243,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/04/01 09:35:03</t>
+          <t>2025/04/01 09:35:45</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2326,7 +2258,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>吳承翰</t>
+          <t>郭建宏</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2341,36 +2273,28 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>測試備註</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>8600</v>
-      </c>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>18600</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>760500</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>000000426156</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>曾雅雯</t>
-        </is>
-      </c>
+        <v>812500</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/04/01 09:36:25</t>
+          <t>2025/04/01 09:36:02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2385,7 +2309,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>謝家豪</t>
+          <t>陳佩君</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2400,20 +2324,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
+          <t>買書</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>200</v>
+        <v>31100</v>
       </c>
       <c r="K38" t="n">
-        <v>760700</v>
+        <v>843600</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2421,7 +2345,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/04/01 09:37:50</t>
+          <t>2025/04/01 09:37:09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2436,7 +2360,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>廖惠君</t>
+          <t>吳美惠</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2451,20 +2375,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>網購扣款</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>17900</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>測試備註</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9700</v>
+      </c>
       <c r="K39" t="n">
-        <v>742800</v>
+        <v>853300</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2472,7 +2396,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/04/01 09:38:45</t>
+          <t>2025/04/01 09:38:16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2487,7 +2411,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>吳志明</t>
+          <t>洪承恩</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2502,20 +2426,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>7600</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>繳房租</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>24900</v>
+      </c>
       <c r="K40" t="n">
-        <v>735200</v>
+        <v>878200</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2523,7 +2447,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/04/01 09:39:37</t>
+          <t>2025/04/01 09:39:23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2538,7 +2462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>賴雅雯</t>
+          <t>洪嘉玲</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2553,20 +2477,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2600</v>
-      </c>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>11800</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>737800</v>
+        <v>866400</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2574,7 +2498,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/04/01 09:40:32</t>
+          <t>2025/04/01 09:40:30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2589,7 +2513,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>徐美玲</t>
+          <t>許心怡</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2604,32 +2528,28 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>轉帳</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4200</v>
-      </c>
+          <t>代繳電費</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>742000</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>000000892697</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>王美玲</t>
-        </is>
-      </c>
+        <v>863400</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/04/01 09:41:43</t>
+          <t>2025/04/01 09:41:37</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2644,7 +2564,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>賴宗翰</t>
+          <t>洪欣怡</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2659,7 +2579,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2667,12 +2587,12 @@
           <t>聚餐</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>48300</v>
-      </c>
+      <c r="I43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>790300</v>
+        <v>853400</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2680,7 +2600,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/04/01 09:42:37</t>
+          <t>2025/04/01 09:42:44</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2695,7 +2615,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>賴淑惠</t>
+          <t>王心怡</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2710,20 +2630,20 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>21500</v>
-      </c>
+          <t>測試備註</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>811800</v>
+        <v>841500</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2731,7 +2651,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/04/01 09:43:33</t>
+          <t>2025/04/01 09:43:01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2746,7 +2666,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>許宗翰</t>
+          <t>楊建宏</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2761,20 +2681,20 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>網購扣款</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>測試備註</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17200</v>
+        <v>15200</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>794600</v>
+        <v>826300</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2782,7 +2702,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/04/01 09:44:16</t>
+          <t>2025/04/01 09:44:08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2797,7 +2717,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>許宇軒</t>
+          <t>李建志</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2812,7 +2732,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2820,12 +2740,12 @@
           <t>PChome</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>11800</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>45400</v>
+      </c>
       <c r="K46" t="n">
-        <v>782800</v>
+        <v>871700</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2833,7 +2753,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/04/01 09:45:48</t>
+          <t>2025/04/01 09:45:15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2848,7 +2768,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>廖冠宇</t>
+          <t>賴建宏</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2863,32 +2783,28 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>轉帳</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>薪資轉帳</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>31900</v>
+        <v>9200</v>
       </c>
       <c r="K47" t="n">
-        <v>814700</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>000000590341</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>張美玲</t>
-        </is>
-      </c>
+        <v>880900</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/04/01 09:46:32</t>
+          <t>2025/04/01 09:46:22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2903,7 +2819,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>劉心怡</t>
+          <t>邱雅婷</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2918,20 +2834,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1800</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>19900</v>
+      </c>
       <c r="K48" t="n">
-        <v>812900</v>
+        <v>900800</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2939,7 +2851,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/04/01 09:47:18</t>
+          <t>2025/04/01 09:47:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2954,7 +2866,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>楊美惠</t>
+          <t>李淑芬</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2969,16 +2881,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>36100</v>
-      </c>
+      <c r="I49" t="n">
+        <v>9300</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>849000</v>
+        <v>891500</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2986,7 +2898,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/04/01 09:48:41</t>
+          <t>2025/04/01 09:48:36</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3001,7 +2913,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>張冠志</t>
+          <t>蔡淑芬</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3016,20 +2928,16 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>47800</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>19400</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>896800</v>
+        <v>872100</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3037,7 +2945,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/04/01 09:49:08</t>
+          <t>2025/04/01 09:49:43</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3052,7 +2960,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>楊美惠</t>
+          <t>林志偉</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3067,36 +2975,24 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>跨行提款</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>19100</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>20200</v>
+      </c>
       <c r="K51" t="n">
-        <v>877700</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>000000580097</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>李家豪</t>
-        </is>
-      </c>
+        <v>892300</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/04/01 09:50:13</t>
+          <t>2025/04/01 09:50:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3111,7 +3007,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>曾家豪</t>
+          <t>廖佩君</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3126,20 +3022,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
+          <t>代繳電費</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>864700</v>
+        <v>880200</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3147,7 +3039,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/04/01 09:51:03</t>
+          <t>2025/04/01 09:51:07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3162,7 +3054,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>陳欣怡</t>
+          <t>黃佳穎</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3177,20 +3069,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>2300</v>
+        <v>24700</v>
       </c>
       <c r="K53" t="n">
-        <v>867000</v>
+        <v>904900</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3198,7 +3086,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/04/01 09:52:49</t>
+          <t>2025/04/01 09:52:14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3213,7 +3101,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>洪怡君</t>
+          <t>黃惠君</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3228,20 +3116,16 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>繳房租</t>
-        </is>
-      </c>
+          <t>薪資轉帳</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>38000</v>
+        <v>35800</v>
       </c>
       <c r="K54" t="n">
-        <v>905000</v>
+        <v>940700</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3249,7 +3133,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/04/01 09:53:45</t>
+          <t>2025/04/01 09:53:21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3264,7 +3148,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>黃冠志</t>
+          <t>鄭豪</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3279,20 +3163,20 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>代繳電費</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
+          <t>買書</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>902100</v>
+        <v>935900</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3300,7 +3184,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/04/01 09:54:44</t>
+          <t>2025/04/01 09:54:28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3315,7 +3199,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>鄭淑惠</t>
+          <t>林美玲</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3330,20 +3214,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>生活費</t>
+          <t>UberEats</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>42800</v>
+        <v>47200</v>
       </c>
       <c r="K56" t="n">
-        <v>944900</v>
+        <v>983100</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3366,7 +3250,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>楊心怡</t>
+          <t>鄭冠宇</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3381,20 +3265,20 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>買書</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2200</v>
-      </c>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>16100</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>947100</v>
+        <v>967000</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3402,7 +3286,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/04/01 09:56:50</t>
+          <t>2025/04/01 09:56:42</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3417,7 +3301,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>劉惠君</t>
+          <t>林豪</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3432,20 +3316,20 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>35000</v>
-      </c>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>11900</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>982100</v>
+        <v>955100</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3453,7 +3337,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/04/01 09:57:06</t>
+          <t>2025/04/01 09:57:49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3468,7 +3352,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>李宇軒</t>
+          <t>吳美惠</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3483,20 +3367,20 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>聚餐</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>47600</v>
+      </c>
       <c r="K59" t="n">
-        <v>966200</v>
+        <v>1002700</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3504,7 +3388,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/04/01 09:58:15</t>
+          <t>2025/04/01 09:58:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3519,7 +3403,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>王郁婷</t>
+          <t>謝志明</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3534,20 +3418,20 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>生活費</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>1300</v>
+        <v>39700</v>
       </c>
       <c r="K60" t="n">
-        <v>967500</v>
+        <v>1042400</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3555,7 +3439,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/04/01 09:59:21</t>
+          <t>2025/04/01 09:59:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3570,7 +3454,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>張志偉</t>
+          <t>黃美惠</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3585,20 +3469,20 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>4100</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>PChome</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1400</v>
+      </c>
       <c r="K61" t="n">
-        <v>963400</v>
+        <v>1043800</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3606,7 +3490,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/04/01 10:00:02</t>
+          <t>2025/04/01 10:00:20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3621,7 +3505,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>鄭佳穎</t>
+          <t>徐雅婷</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3636,20 +3520,20 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>11800</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>20400</v>
+      </c>
       <c r="K62" t="n">
-        <v>951600</v>
+        <v>1064200</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3657,7 +3541,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/04/01 10:01:50</t>
+          <t>2025/04/01 10:01:27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3672,7 +3556,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>蔡承翰</t>
+          <t>賴承恩</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3687,36 +3571,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>33800</v>
+        <v>41000</v>
       </c>
       <c r="K63" t="n">
-        <v>985400</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>000000202511</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>謝欣怡</t>
-        </is>
-      </c>
+        <v>1105200</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/04/01 10:02:04</t>
+          <t>2025/04/01 10:02:34</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3731,7 +3603,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>廖欣怡</t>
+          <t>賴郁婷</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3751,11 +3623,11 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>975100</v>
+        <v>1095600</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3763,7 +3635,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/04/01 10:03:01</t>
+          <t>2025/04/01 10:03:41</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3778,7 +3650,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>蔡志明</t>
+          <t>曾俊宏</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3798,15 +3670,15 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>繳房租</t>
+          <t>手續費</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>29800</v>
+        <v>32600</v>
       </c>
       <c r="K65" t="n">
-        <v>1004900</v>
+        <v>1128200</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3814,7 +3686,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/04/01 10:04:06</t>
+          <t>2025/04/01 10:04:48</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3829,7 +3701,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>徐建宏</t>
+          <t>林冠志</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3844,20 +3716,20 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>11200</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>22600</v>
+      </c>
       <c r="K66" t="n">
-        <v>993700</v>
+        <v>1150800</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3865,7 +3737,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/04/01 10:05:07</t>
+          <t>2025/04/01 10:05:05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3880,7 +3752,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>林嘉玲</t>
+          <t>黃宜君</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3895,20 +3767,20 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>6600</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>22800</v>
+      </c>
       <c r="K67" t="n">
-        <v>987100</v>
+        <v>1173600</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3916,7 +3788,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/04/01 10:06:27</t>
+          <t>2025/04/01 10:06:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3931,7 +3803,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>吳心怡</t>
+          <t>蔡嘉玲</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3946,16 +3818,20 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>跨行提款</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>35200</v>
+        <v>32300</v>
       </c>
       <c r="K68" t="n">
-        <v>1022300</v>
+        <v>1205900</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3963,7 +3839,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/04/01 10:07:27</t>
+          <t>2025/04/01 10:07:19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3978,7 +3854,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>張郁婷</t>
+          <t>陳宗翰</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3993,20 +3869,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>34000</v>
-      </c>
+          <t>一般消費</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>19600</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1056300</v>
+        <v>1186300</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4014,7 +3886,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/04/01 10:08:19</t>
+          <t>2025/04/01 10:08:26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4029,7 +3901,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>楊怡君</t>
+          <t>黃俊傑</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4044,20 +3916,20 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>代繳水費</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>聚餐</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>1045900</v>
+        <v>1176200</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4065,7 +3937,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/04/01 10:09:08</t>
+          <t>2025/04/01 10:09:33</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4080,7 +3952,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>王美惠</t>
+          <t>張承翰</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4095,20 +3967,20 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
+          <t>還款</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>34700</v>
+        <v>33600</v>
       </c>
       <c r="K71" t="n">
-        <v>1080600</v>
+        <v>1209800</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4116,7 +3988,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/04/01 10:10:36</t>
+          <t>2025/04/01 10:10:40</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4131,7 +4003,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>楊佳穎</t>
+          <t>張怡君</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4146,16 +4018,20 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>代繳水費</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>還款</t>
+        </is>
+      </c>
       <c r="I72" t="n">
-        <v>100</v>
+        <v>5200</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>1080500</v>
+        <v>1204600</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4163,7 +4039,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/04/01 10:11:13</t>
+          <t>2025/04/01 10:11:47</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4178,7 +4054,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>洪宜君</t>
+          <t>賴欣怡</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4193,20 +4069,20 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>網拍轉帳</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>12000</v>
+        <v>9200</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>1068500</v>
+        <v>1195400</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4214,7 +4090,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/04/01 10:12:43</t>
+          <t>2025/04/01 10:12:04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4229,7 +4105,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>王惠君</t>
+          <t>陳宜君</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4244,16 +4120,20 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>40700</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>14000</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>1109200</v>
+        <v>1181400</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4261,7 +4141,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/04/01 10:13:05</t>
+          <t>2025/04/01 10:13:11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4276,7 +4156,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>劉惠君</t>
+          <t>陳承恩</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4291,20 +4171,20 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2400</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3100</v>
+      </c>
       <c r="K75" t="n">
-        <v>1106800</v>
+        <v>1184500</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4312,7 +4192,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/04/01 10:14:19</t>
+          <t>2025/04/01 10:14:18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4327,7 +4207,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>徐承翰</t>
+          <t>陳心怡</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4342,36 +4222,24 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>買書</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1300</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>7700</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>1108100</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>000000048458</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>劉雅雯</t>
-        </is>
-      </c>
+        <v>1176800</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/04/01 10:15:49</t>
+          <t>2025/04/01 10:15:25</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4386,7 +4254,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>賴冠宇</t>
+          <t>謝佳穎</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4401,20 +4269,20 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>45400</v>
-      </c>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>1153500</v>
+        <v>1173600</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4422,7 +4290,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/04/01 10:16:45</t>
+          <t>2025/04/01 10:16:32</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4437,7 +4305,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>李佩君</t>
+          <t>林建志</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4452,20 +4320,20 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>代繳電費</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
+          <t>還款</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6300</v>
+        <v>9100</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>1147200</v>
+        <v>1164500</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4473,7 +4341,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/04/01 10:17:44</t>
+          <t>2025/04/01 10:17:39</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4488,7 +4356,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>林怡君</t>
+          <t>許心怡</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4503,36 +4371,28 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>聚餐</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>11300</v>
+        <v>21400</v>
       </c>
       <c r="K79" t="n">
-        <v>1158500</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>000000184430</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>邱宜君</t>
-        </is>
-      </c>
+        <v>1185900</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/04/01 10:18:15</t>
+          <t>2025/04/01 10:18:46</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4547,7 +4407,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>洪惠君</t>
+          <t>鄭建宏</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4562,20 +4422,20 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>買書</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>41100</v>
-      </c>
+          <t>聚餐</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>12700</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>1199600</v>
+        <v>1173200</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -4583,7 +4443,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/04/01 10:19:33</t>
+          <t>2025/04/01 10:19:03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4598,7 +4458,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>廖宜君</t>
+          <t>郭雅雯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4613,16 +4473,16 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>代繳電費</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>11000</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>21800</v>
+      </c>
       <c r="K81" t="n">
-        <v>1188600</v>
+        <v>1195000</v>
       </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4645,7 +4505,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>劉俊宏</t>
+          <t>曾佩君</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4660,7 +4520,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>代繳電費</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4668,12 +4528,12 @@
           <t>蝦皮購物</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>19300</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>13300</v>
+      </c>
       <c r="K82" t="n">
-        <v>1169300</v>
+        <v>1208300</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -4681,7 +4541,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/04/01 10:21:40</t>
+          <t>2025/04/01 10:21:17</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4696,7 +4556,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>劉家豪</t>
+          <t>楊淑芬</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4711,16 +4571,20 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>跨行提款</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>UberEats</t>
+        </is>
+      </c>
       <c r="I83" t="n">
-        <v>16100</v>
+        <v>8300</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>1153200</v>
+        <v>1200000</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -4728,7 +4592,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/04/01 10:22:28</t>
+          <t>2025/04/01 10:22:24</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4743,7 +4607,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>許欣怡</t>
+          <t>蔡詩涵</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4758,20 +4622,16 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>測試備註</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>14000</v>
-      </c>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>18800</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>1167200</v>
+        <v>1181200</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -4779,7 +4639,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/04/01 10:23:34</t>
+          <t>2025/04/01 10:23:31</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4794,7 +4654,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>謝嘉玲</t>
+          <t>陳雅婷</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4809,20 +4669,20 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>買書</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11900</v>
-      </c>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>600</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>1179100</v>
+        <v>1180600</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4830,7 +4690,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/04/01 10:24:09</t>
+          <t>2025/04/01 10:24:38</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4845,7 +4705,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>郭志明</t>
+          <t>許俊傑</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4860,36 +4720,28 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>20900</v>
-      </c>
+          <t>Foodpanda</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>000000346954</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>廖宜君</t>
-        </is>
-      </c>
+        <v>1164600</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/04/01 10:25:13</t>
+          <t>2025/04/01 10:25:45</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4904,7 +4756,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>賴志偉</t>
+          <t>劉怡君</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4928,11 +4780,11 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>19600</v>
+        <v>7000</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>1180400</v>
+        <v>1157600</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -4940,7 +4792,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/04/01 10:26:30</t>
+          <t>2025/04/01 10:26:02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4955,7 +4807,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>謝承翰</t>
+          <t>邱承翰</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4970,20 +4822,20 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>38600</v>
-      </c>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>14500</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>1219000</v>
+        <v>1143100</v>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -4991,7 +4843,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/04/01 10:27:26</t>
+          <t>2025/04/01 10:27:09</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5006,7 +4858,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>郭雅雯</t>
+          <t>李冠志</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5021,20 +4873,20 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>PChome</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>14000</v>
+        <v>36500</v>
       </c>
       <c r="K89" t="n">
-        <v>1233000</v>
+        <v>1179600</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -5042,7 +4894,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/04/01 10:28:01</t>
+          <t>2025/04/01 10:28:16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5057,7 +4909,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>王俊宏</t>
+          <t>李佩君</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5072,20 +4924,20 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>18600</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>13100</v>
+      </c>
       <c r="K90" t="n">
-        <v>1214400</v>
+        <v>1192700</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -5093,7 +4945,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/04/01 10:29:29</t>
+          <t>2025/04/01 10:29:23</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5108,7 +4960,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>謝淑惠</t>
+          <t>蔡雅婷</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5123,16 +4975,20 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>還款</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1400</v>
+        <v>13700</v>
       </c>
       <c r="K91" t="n">
-        <v>1215800</v>
+        <v>1206400</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -5140,7 +4996,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/04/01 10:30:36</t>
+          <t>2025/04/01 10:30:30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5155,7 +5011,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>林家豪</t>
+          <t>黃志偉</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5170,36 +5026,28 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7000</v>
-      </c>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4300</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>1222800</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>000000908959</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>洪雅婷</t>
-        </is>
-      </c>
+        <v>1202100</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/04/01 10:31:24</t>
+          <t>2025/04/01 10:31:37</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5214,7 +5062,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>許詩涵</t>
+          <t>鄭詩涵</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5229,16 +5077,20 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
       <c r="I93" t="n">
-        <v>8400</v>
+        <v>13500</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>1214400</v>
+        <v>1188600</v>
       </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -5246,7 +5098,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/04/01 10:32:24</t>
+          <t>2025/04/01 10:32:44</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5261,7 +5113,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>曾豪</t>
+          <t>鄭俊宏</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5276,20 +5128,16 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>代繳水費</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>2100</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>34600</v>
+      </c>
       <c r="K94" t="n">
-        <v>1212300</v>
+        <v>1223200</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -5297,7 +5145,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/04/01 10:33:47</t>
+          <t>2025/04/01 10:33:01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5312,7 +5160,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>黃詩涵</t>
+          <t>張俊傑</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5332,15 +5180,15 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>還款</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>33300</v>
+        <v>38800</v>
       </c>
       <c r="K95" t="n">
-        <v>1245600</v>
+        <v>1262000</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -5348,7 +5196,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/04/01 10:34:41</t>
+          <t>2025/04/01 10:34:08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5363,7 +5211,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>李宗翰</t>
+          <t>鄭家豪</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5378,36 +5226,28 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>手續費</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>10300</v>
+        <v>14600</v>
       </c>
       <c r="K96" t="n">
-        <v>1255900</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>000000879995</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>陳美惠</t>
-        </is>
-      </c>
+        <v>1276600</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/04/01 10:35:08</t>
+          <t>2025/04/01 10:35:15</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5422,7 +5262,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>鄭雅婷</t>
+          <t>洪美惠</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5437,36 +5277,28 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>12000</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>32100</v>
+      </c>
       <c r="K97" t="n">
-        <v>1243900</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>000000733442</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>蔡詩涵</t>
-        </is>
-      </c>
+        <v>1308700</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/04/01 10:36:38</t>
+          <t>2025/04/01 10:36:22</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5481,7 +5313,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>賴豪</t>
+          <t>劉冠志</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5496,20 +5328,20 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5600</v>
-      </c>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>3900</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>1249500</v>
+        <v>1304800</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
@@ -5517,7 +5349,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/04/01 10:37:19</t>
+          <t>2025/04/01 10:37:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5532,7 +5364,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>賴嘉玲</t>
+          <t>廖俊宏</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5547,20 +5379,20 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>代繳水費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>37200</v>
+      </c>
       <c r="K99" t="n">
-        <v>1247500</v>
+        <v>1342000</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -5568,7 +5400,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/04/01 10:38:40</t>
+          <t>2025/04/01 10:38:36</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5583,7 +5415,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>張建志</t>
+          <t>楊建宏</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5598,36 +5430,28 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>43600</v>
-      </c>
+          <t>自動扣繳</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>8600</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>1291100</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>000000717497</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>徐建志</t>
-        </is>
-      </c>
+        <v>1333400</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/04/01 10:39:36</t>
+          <t>2025/04/01 10:39:43</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5642,7 +5466,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>鄭美玲</t>
+          <t>廖淑惠</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5657,16 +5481,20 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>薪資轉帳</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>22000</v>
       </c>
       <c r="K101" t="n">
-        <v>1313100</v>
+        <v>1355400</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -5674,7 +5502,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/04/01 10:40:32</t>
+          <t>2025/04/01 10:40:00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5689,7 +5517,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>洪嘉玲</t>
+          <t>劉欣怡</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5704,36 +5532,28 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>測試備註</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>12600</v>
+        <v>16200</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>1300500</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>000000110665</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>郭心怡</t>
-        </is>
-      </c>
+        <v>1339200</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/04/01 10:41:09</t>
+          <t>2025/04/01 10:41:07</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5748,7 +5568,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>蔡美惠</t>
+          <t>許宇軒</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5763,16 +5583,20 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>16700</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>14800</v>
+      </c>
       <c r="K103" t="n">
-        <v>1283800</v>
+        <v>1354000</v>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5780,7 +5604,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/04/01 10:42:34</t>
+          <t>2025/04/01 10:42:14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5795,7 +5619,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>賴家豪</t>
+          <t>謝志明</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5810,20 +5634,20 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>代繳電費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>手續費</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>18800</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6400</v>
+      </c>
       <c r="K104" t="n">
-        <v>1265000</v>
+        <v>1360400</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5831,7 +5655,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/04/01 10:43:20</t>
+          <t>2025/04/01 10:43:21</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5846,7 +5670,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>洪淑惠</t>
+          <t>楊豪</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5861,36 +5685,28 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
+          <t>UberEats</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>45200</v>
+        <v>10900</v>
       </c>
       <c r="K105" t="n">
-        <v>1310200</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>000000472700</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>劉詩涵</t>
-        </is>
-      </c>
+        <v>1371300</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/04/01 10:44:39</t>
+          <t>2025/04/01 10:44:28</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5905,7 +5721,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>許雅婷</t>
+          <t>賴欣怡</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5920,20 +5736,20 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
+          <t>生活費</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>12700</v>
+        <v>19000</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>1297500</v>
+        <v>1352300</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -5941,7 +5757,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/04/01 10:45:31</t>
+          <t>2025/04/01 10:45:35</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5956,7 +5772,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>蔡冠志</t>
+          <t>張宗翰</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5971,20 +5787,16 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="K107" t="n">
-        <v>1315000</v>
+        <v>1372800</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -5992,7 +5804,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/04/01 10:46:38</t>
+          <t>2025/04/01 10:46:42</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6007,7 +5819,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>吳美玲</t>
+          <t>鄭美玲</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6022,20 +5834,20 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>13300</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>41500</v>
+      </c>
       <c r="K108" t="n">
-        <v>1301700</v>
+        <v>1414300</v>
       </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -6043,7 +5855,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/04/01 10:47:15</t>
+          <t>2025/04/01 10:47:49</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6058,7 +5870,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>劉嘉玲</t>
+          <t>陳宜君</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6073,16 +5885,20 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>代繳電費</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
-        <v>19500</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+          <t>跨行提款</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>41400</v>
+      </c>
       <c r="K109" t="n">
-        <v>1282200</v>
+        <v>1455700</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -6090,7 +5906,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/04/01 10:48:30</t>
+          <t>2025/04/01 10:48:06</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6105,7 +5921,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>楊宗翰</t>
+          <t>曾美惠</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6120,20 +5936,20 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>代繳電費</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>2400</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>36800</v>
+      </c>
       <c r="K110" t="n">
-        <v>1279800</v>
+        <v>1492500</v>
       </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
@@ -6141,7 +5957,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/04/01 10:49:25</t>
+          <t>2025/04/01 10:49:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6156,7 +5972,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>廖建宏</t>
+          <t>鄭美玲</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6171,7 +5987,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6179,12 +5995,12 @@
           <t>Foodpanda</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>24300</v>
-      </c>
+      <c r="I111" t="n">
+        <v>16900</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>1304100</v>
+        <v>1475600</v>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -6192,7 +6008,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/04/01 10:50:22</t>
+          <t>2025/04/01 10:50:20</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6207,7 +6023,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>洪家豪</t>
+          <t>徐承恩</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6222,12 +6038,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>測試備註</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -6235,7 +6051,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>1295000</v>
+        <v>1466500</v>
       </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -6243,7 +6059,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/04/01 10:51:19</t>
+          <t>2025/04/01 10:51:27</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6258,7 +6074,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>吳欣怡</t>
+          <t>徐冠志</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6273,20 +6089,20 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>聚餐</t>
+          <t>還款</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>1276500</v>
+        <v>1447100</v>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -6294,7 +6110,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/04/01 10:52:07</t>
+          <t>2025/04/01 10:52:34</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6309,7 +6125,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>賴詩涵</t>
+          <t>楊冠宇</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6329,31 +6145,23 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>聚餐</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>37900</v>
+        <v>19700</v>
       </c>
       <c r="K114" t="n">
-        <v>1314400</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>000000507719</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>蔡郁婷</t>
-        </is>
-      </c>
+        <v>1466800</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/04/01 10:53:33</t>
+          <t>2025/04/01 10:53:41</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6368,7 +6176,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>楊豪</t>
+          <t>徐建宏</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6383,36 +6191,28 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>代繳電費</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>繳房租</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>7600</v>
+        <v>19000</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>1306800</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>000000238533</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>鄭雅婷</t>
-        </is>
-      </c>
+        <v>1447800</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/04/01 10:54:45</t>
+          <t>2025/04/01 10:54:48</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6427,7 +6227,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>林怡君</t>
+          <t>洪宗翰</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6447,15 +6247,15 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>生活費</t>
+          <t>繳房租</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>49900</v>
+        <v>1400</v>
       </c>
       <c r="K116" t="n">
-        <v>1356700</v>
+        <v>1449200</v>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -6463,7 +6263,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/04/01 10:55:18</t>
+          <t>2025/04/01 10:55:05</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6478,7 +6278,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>陳淑惠</t>
+          <t>許雅婷</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6493,20 +6293,20 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>聚餐</t>
+          <t>UberEats</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>44700</v>
+        <v>20800</v>
       </c>
       <c r="K117" t="n">
-        <v>1401400</v>
+        <v>1470000</v>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -6514,7 +6314,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/04/01 10:56:18</t>
+          <t>2025/04/01 10:56:12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6529,7 +6329,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>王志明</t>
+          <t>廖志明</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6544,16 +6344,20 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>代繳電費</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
+          <t>代繳水費</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>繳房租</t>
+        </is>
+      </c>
       <c r="I118" t="n">
-        <v>8800</v>
+        <v>12000</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>1392600</v>
+        <v>1458000</v>
       </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
@@ -6561,7 +6365,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/04/01 10:57:16</t>
+          <t>2025/04/01 10:57:19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6576,7 +6380,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>林俊傑</t>
+          <t>陳冠志</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6591,36 +6395,28 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>10300</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>21200</v>
+      </c>
       <c r="K119" t="n">
-        <v>1382300</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>000000515633</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>黃淑惠</t>
-        </is>
-      </c>
+        <v>1479200</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/04/01 10:58:09</t>
+          <t>2025/04/01 10:58:26</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6635,7 +6431,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>徐建志</t>
+          <t>李建志</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6650,36 +6446,24 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>跨行提款</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>測試備註</t>
-        </is>
-      </c>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>3100</v>
+        <v>7000</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>1379200</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>000000585181</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>郭美惠</t>
-        </is>
-      </c>
+        <v>1472200</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/04/01 10:59:39</t>
+          <t>2025/04/01 10:59:33</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6694,7 +6478,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>洪佳穎</t>
+          <t>廖承翰</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6709,20 +6493,20 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>23100</v>
-      </c>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>9900</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>1402300</v>
+        <v>1462300</v>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -6730,7 +6514,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/04/01 11:00:37</t>
+          <t>2025/04/01 11:00:40</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6745,7 +6529,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>張詩涵</t>
+          <t>許冠志</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6760,20 +6544,20 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>網購扣款</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>生活費</t>
+          <t>自動扣繳</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>15700</v>
+        <v>2600</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>1386600</v>
+        <v>1459700</v>
       </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -6781,7 +6565,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/04/01 11:01:13</t>
+          <t>2025/04/01 11:01:47</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6796,7 +6580,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>劉雅婷</t>
+          <t>廖詩涵</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6811,20 +6595,20 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8100</v>
-      </c>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>9600</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>1394700</v>
+        <v>1450100</v>
       </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
@@ -6832,7 +6616,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/04/01 11:02:35</t>
+          <t>2025/04/01 11:02:04</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6847,7 +6631,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>洪嘉玲</t>
+          <t>陳淑惠</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6862,20 +6646,16 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>21000</v>
-      </c>
+          <t>代繳電費</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>1415700</v>
+        <v>1434600</v>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -6883,7 +6663,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/04/01 11:03:38</t>
+          <t>2025/04/01 11:03:11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6898,7 +6678,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>楊嘉玲</t>
+          <t>陳豪</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6913,20 +6693,16 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>網購扣款</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>22400</v>
+      </c>
       <c r="K125" t="n">
-        <v>1409700</v>
+        <v>1457000</v>
       </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
@@ -6949,7 +6725,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>吳承恩</t>
+          <t>林志偉</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6969,31 +6745,23 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>繳房租</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>6800</v>
+        <v>13300</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>1402900</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>000000826097</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>賴惠君</t>
-        </is>
-      </c>
+        <v>1443700</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/04/01 11:05:07</t>
+          <t>2025/04/01 11:05:25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7008,7 +6776,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>李美玲</t>
+          <t>李俊傑</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7026,17 +6794,13 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>42400</v>
+        <v>25700</v>
       </c>
       <c r="K127" t="n">
-        <v>1445300</v>
+        <v>1469400</v>
       </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
@@ -7044,7 +6808,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/04/01 11:06:03</t>
+          <t>2025/04/01 11:06:32</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7059,7 +6823,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>張宜君</t>
+          <t>王宗翰</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7074,20 +6838,20 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>22500</v>
-      </c>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2400</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>1467800</v>
+        <v>1467000</v>
       </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -7095,7 +6859,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/04/01 11:07:44</t>
+          <t>2025/04/01 11:07:39</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7110,7 +6874,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>廖雅雯</t>
+          <t>楊家豪</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7125,20 +6889,20 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>代繳水費</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
+          <t>還款</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>12900</v>
+        <v>4600</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1454900</v>
+        <v>1462400</v>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -7146,7 +6910,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/04/01 11:08:28</t>
+          <t>2025/04/01 11:08:46</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7161,7 +6925,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>郭郁婷</t>
+          <t>洪心怡</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7176,20 +6940,16 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>45600</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>400</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1500500</v>
+        <v>1462000</v>
       </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
@@ -7197,7 +6957,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/04/01 11:09:20</t>
+          <t>2025/04/01 11:09:03</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7212,7 +6972,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>陳詩涵</t>
+          <t>張豪</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7227,7 +6987,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7235,28 +6995,20 @@
           <t>還款</t>
         </is>
       </c>
-      <c r="I131" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>42300</v>
+      </c>
       <c r="K131" t="n">
-        <v>1494600</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>000000707053</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>賴淑惠</t>
-        </is>
-      </c>
+        <v>1504300</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/04/01 11:10:43</t>
+          <t>2025/04/01 11:10:10</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7271,7 +7023,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>王雅雯</t>
+          <t>賴豪</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7286,20 +7038,20 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>生活費</t>
+          <t>測試備註</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>19600</v>
+        <v>6800</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>1475000</v>
+        <v>1497500</v>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
@@ -7307,7 +7059,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/04/01 11:11:33</t>
+          <t>2025/04/01 11:11:17</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7322,7 +7074,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>郭佩君</t>
+          <t>張冠志</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7337,20 +7089,20 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>網購扣款</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>繳房租</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>15000</v>
+        <v>800</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>1460000</v>
+        <v>1496700</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -7358,7 +7110,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/04/01 11:12:31</t>
+          <t>2025/04/01 11:12:24</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7373,7 +7125,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>許欣怡</t>
+          <t>邱家豪</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7391,17 +7143,13 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>21000</v>
+        <v>10100</v>
       </c>
       <c r="K134" t="n">
-        <v>1481000</v>
+        <v>1506800</v>
       </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -7409,7 +7157,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/04/01 11:13:42</t>
+          <t>2025/04/01 11:13:31</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7424,7 +7172,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>曾佳穎</t>
+          <t>曾嘉玲</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7439,20 +7187,20 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>21100</v>
-      </c>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>1502100</v>
+        <v>1504700</v>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -7460,7 +7208,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/04/01 11:14:42</t>
+          <t>2025/04/01 11:14:38</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7475,7 +7223,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>黃欣怡</t>
+          <t>吳家豪</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7490,20 +7238,20 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>11700</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31300</v>
+      </c>
       <c r="K136" t="n">
-        <v>1490400</v>
+        <v>1536000</v>
       </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -7511,7 +7259,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/04/01 11:15:16</t>
+          <t>2025/04/01 11:15:45</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7526,7 +7274,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>廖宜君</t>
+          <t>楊宜君</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7541,36 +7289,28 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
+          <t>手續費</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>13200</v>
+        <v>900</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>1477200</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>000000864998</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>陳惠君</t>
-        </is>
-      </c>
+        <v>1535100</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/04/01 11:16:26</t>
+          <t>2025/04/01 11:16:02</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7585,7 +7325,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>洪詩涵</t>
+          <t>徐淑芬</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7600,32 +7340,28 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>18600</v>
-      </c>
+          <t>代繳水費</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>聚餐</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>16600</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>1495800</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>000000652878</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>曾佩君</t>
-        </is>
-      </c>
+        <v>1518500</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/04/01 11:17:03</t>
+          <t>2025/04/01 11:17:09</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7640,7 +7376,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>楊宜君</t>
+          <t>吳宇軒</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7658,13 +7394,17 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>手續費</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>6800</v>
+        <v>16200</v>
       </c>
       <c r="K139" t="n">
-        <v>1502600</v>
+        <v>1534700</v>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -7672,7 +7412,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/04/01 11:18:44</t>
+          <t>2025/04/01 11:18:16</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7687,7 +7427,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>王佳穎</t>
+          <t>張淑惠</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7702,36 +7442,28 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>16200</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>42700</v>
+      </c>
       <c r="K140" t="n">
-        <v>1486400</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>000000638448</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>劉嘉玲</t>
-        </is>
-      </c>
+        <v>1577400</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/04/01 11:19:35</t>
+          <t>2025/04/01 11:19:23</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7746,7 +7478,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>劉俊宏</t>
+          <t>吳雅婷</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7761,20 +7493,20 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>Foodpanda</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>4800</v>
+        <v>20000</v>
       </c>
       <c r="K141" t="n">
-        <v>1491200</v>
+        <v>1597400</v>
       </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -7782,7 +7514,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/04/01 11:20:07</t>
+          <t>2025/04/01 11:20:30</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7797,7 +7529,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>蔡承恩</t>
+          <t>張志偉</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7812,36 +7544,28 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>買書</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>12800</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>41800</v>
+      </c>
       <c r="K142" t="n">
-        <v>1478400</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>000000977957</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>楊建宏</t>
-        </is>
-      </c>
+        <v>1639200</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/01 11:21:30</t>
+          <t>2025/04/01 11:21:37</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7856,7 +7580,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>李志偉</t>
+          <t>鄭冠志</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7871,16 +7595,20 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="n">
-        <v>14200</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>23500</v>
+      </c>
       <c r="K143" t="n">
-        <v>1464200</v>
+        <v>1662700</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -7888,7 +7616,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/01 11:22:12</t>
+          <t>2025/04/01 11:22:44</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7903,7 +7631,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>邱家豪</t>
+          <t>謝志明</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7918,36 +7646,28 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>薪資轉帳</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
+          <t>PChome</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>39600</v>
+        <v>6300</v>
       </c>
       <c r="K144" t="n">
-        <v>1503800</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>000000828381</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>郭欣怡</t>
-        </is>
-      </c>
+        <v>1669000</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/01 11:23:00</t>
+          <t>2025/04/01 11:23:01</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7962,7 +7682,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>洪怡君</t>
+          <t>鄭宗翰</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7977,16 +7697,20 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>網購扣款</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
-        <v>3900</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>自動扣繳</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>39800</v>
+      </c>
       <c r="K145" t="n">
-        <v>1499900</v>
+        <v>1708800</v>
       </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -7994,7 +7718,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/01 11:24:30</t>
+          <t>2025/04/01 11:24:08</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8009,7 +7733,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>廖志偉</t>
+          <t>洪志明</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8024,16 +7748,20 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
-        <v>19600</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>測試備註</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>39900</v>
+      </c>
       <c r="K146" t="n">
-        <v>1480300</v>
+        <v>1748700</v>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -8041,7 +7769,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/01 11:25:29</t>
+          <t>2025/04/01 11:25:15</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8056,7 +7784,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>謝宗翰</t>
+          <t>陳欣怡</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8071,20 +7799,16 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>測試備註</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>14700</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6000</v>
+      </c>
       <c r="K147" t="n">
-        <v>1465600</v>
+        <v>1754700</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -8092,7 +7816,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/01 11:26:49</t>
+          <t>2025/04/01 11:26:22</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8107,7 +7831,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>李雅雯</t>
+          <t>洪欣怡</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8122,36 +7846,28 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>19100</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>44000</v>
+      </c>
       <c r="K148" t="n">
-        <v>1446500</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>000000495951</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>謝志偉</t>
-        </is>
-      </c>
+        <v>1798700</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/01 11:27:02</t>
+          <t>2025/04/01 11:27:29</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8166,7 +7882,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>張承翰</t>
+          <t>楊嘉玲</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8186,15 +7902,15 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>UberEats</t>
+          <t>網拍轉帳</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>44600</v>
+        <v>25700</v>
       </c>
       <c r="K149" t="n">
-        <v>1491100</v>
+        <v>1824400</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -8202,7 +7918,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/01 11:28:28</t>
+          <t>2025/04/01 11:28:36</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8217,7 +7933,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>李承恩</t>
+          <t>曾佳穎</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8235,13 +7951,17 @@
           <t>信用卡款</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>自動扣繳</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>800</v>
+        <v>36800</v>
       </c>
       <c r="K150" t="n">
-        <v>1491900</v>
+        <v>1861200</v>
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -8249,7 +7969,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/01 11:29:41</t>
+          <t>2025/04/01 11:29:43</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8264,7 +7984,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>謝佩君</t>
+          <t>鄭心怡</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8279,32 +7999,28 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>跨行提款</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>買書</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>40100</v>
+        <v>11500</v>
       </c>
       <c r="K151" t="n">
-        <v>1532000</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>000000277896</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>許美惠</t>
-        </is>
-      </c>
+        <v>1872700</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/01 11:30:05</t>
+          <t>2025/04/01 11:30:00</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8319,7 +8035,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>曾承翰</t>
+          <t>陳郁婷</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8334,20 +8050,20 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>自動扣繳</t>
+          <t>聚餐</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>8200</v>
+        <v>15600</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>1523800</v>
+        <v>1857100</v>
       </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -8355,7 +8071,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/01 11:31:34</t>
+          <t>2025/04/01 11:31:07</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8370,7 +8086,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>楊宗翰</t>
+          <t>洪家豪</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8385,20 +8101,20 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12100</v>
-      </c>
+          <t>買書</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>12600</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>1535900</v>
+        <v>1844500</v>
       </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -8406,7 +8122,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/01 11:32:47</t>
+          <t>2025/04/01 11:32:14</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8421,7 +8137,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>張宜君</t>
+          <t>郭佳穎</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8436,20 +8152,20 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>39000</v>
-      </c>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>16400</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>1574900</v>
+        <v>1828100</v>
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -8457,7 +8173,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/01 11:33:10</t>
+          <t>2025/04/01 11:33:21</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8472,7 +8188,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>鄭心怡</t>
+          <t>陳淑惠</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8487,36 +8203,24 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>轉帳</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>8400</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>43000</v>
+      </c>
       <c r="K155" t="n">
-        <v>1566500</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>000000834816</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>林佳穎</t>
-        </is>
-      </c>
+        <v>1871100</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/01 11:34:27</t>
+          <t>2025/04/01 11:34:28</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8531,7 +8235,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>王美玲</t>
+          <t>陳雅婷</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8546,32 +8250,28 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>薪資轉帳</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>21100</v>
-      </c>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>生活費</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>1587600</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>000000593418</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>王雅婷</t>
-        </is>
-      </c>
+        <v>1868500</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/01 11:35:39</t>
+          <t>2025/04/01 11:35:35</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8586,7 +8286,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>賴俊傑</t>
+          <t>廖宗翰</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8601,20 +8301,20 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>代繳電費</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>Foodpanda</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>12800</v>
+        <v>16100</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>1574800</v>
+        <v>1852400</v>
       </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
@@ -8622,7 +8322,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/01 11:36:14</t>
+          <t>2025/04/01 11:36:42</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8637,7 +8337,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>陳冠志</t>
+          <t>鄭欣怡</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8652,16 +8352,16 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>網購扣款</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="n">
-        <v>6600</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>44900</v>
+      </c>
       <c r="K158" t="n">
-        <v>1568200</v>
+        <v>1897300</v>
       </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
@@ -8669,7 +8369,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/01 11:37:29</t>
+          <t>2025/04/01 11:37:49</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8684,7 +8384,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>洪心怡</t>
+          <t>陳冠志</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8699,20 +8399,20 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>繳房租</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>1900</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>36400</v>
+      </c>
       <c r="K159" t="n">
-        <v>1566300</v>
+        <v>1933700</v>
       </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
@@ -8720,7 +8420,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/01 11:38:37</t>
+          <t>2025/04/01 11:38:06</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8735,7 +8435,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>楊冠宇</t>
+          <t>王建志</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8750,20 +8450,20 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>代繳水費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>11700</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+          <t>Foodpanda</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>20200</v>
+      </c>
       <c r="K160" t="n">
-        <v>1554600</v>
+        <v>1953900</v>
       </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
@@ -8771,7 +8471,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/01 11:39:24</t>
+          <t>2025/04/01 11:39:13</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8786,7 +8486,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>楊嘉玲</t>
+          <t>陳淑芬</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8801,36 +8501,28 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>測試備註</t>
-        </is>
-      </c>
-      <c r="I161" t="n">
-        <v>9800</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2500</v>
+      </c>
       <c r="K161" t="n">
-        <v>1544800</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>000000599704</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>鄭淑惠</t>
-        </is>
-      </c>
+        <v>1956400</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/01 11:40:18</t>
+          <t>2025/04/01 11:40:20</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8845,7 +8537,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>賴承翰</t>
+          <t>黃宇軒</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8863,17 +8555,13 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>500</v>
+        <v>4300</v>
       </c>
       <c r="K162" t="n">
-        <v>1545300</v>
+        <v>1960700</v>
       </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
@@ -8881,7 +8569,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/01 11:41:43</t>
+          <t>2025/04/01 11:41:27</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8896,7 +8584,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>楊詩涵</t>
+          <t>邱俊宏</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8914,13 +8602,17 @@
           <t>利息</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>42700</v>
-      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>18400</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>1588000</v>
+        <v>1942300</v>
       </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
@@ -8928,7 +8620,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/01 11:42:14</t>
+          <t>2025/04/01 11:42:34</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8943,7 +8635,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>蔡惠君</t>
+          <t>賴怡君</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8958,20 +8650,20 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>15900</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>44400</v>
+      </c>
       <c r="K164" t="n">
-        <v>1572100</v>
+        <v>1986700</v>
       </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
@@ -8979,7 +8671,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/01 11:43:48</t>
+          <t>2025/04/01 11:43:41</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8994,7 +8686,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>賴心怡</t>
+          <t>林欣怡</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9009,36 +8701,28 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>生活費</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>15900</v>
-      </c>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>1588000</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>000000826918</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>洪志明</t>
-        </is>
-      </c>
+        <v>1979200</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/01 11:44:46</t>
+          <t>2025/04/01 11:44:48</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9053,7 +8737,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>吳俊傑</t>
+          <t>郭志偉</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9068,36 +8752,28 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>16800</v>
-      </c>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>15300</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>1604800</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>000000783790</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>郭雅婷</t>
-        </is>
-      </c>
+        <v>1963900</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/04/01 11:45:50</t>
+          <t>2025/04/01 11:45:05</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9112,7 +8788,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>王家豪</t>
+          <t>張宜君</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9127,16 +8803,20 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>信用卡款</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="n">
-        <v>7000</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+          <t>轉帳</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>29600</v>
+      </c>
       <c r="K167" t="n">
-        <v>1597800</v>
+        <v>1993500</v>
       </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -9144,7 +8824,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/04/01 11:46:30</t>
+          <t>2025/04/01 11:46:12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9159,7 +8839,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>黃俊傑</t>
+          <t>林宜君</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9174,20 +8854,20 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I168" t="n">
-        <v>12000</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>27100</v>
+      </c>
       <c r="K168" t="n">
-        <v>1585800</v>
+        <v>2020600</v>
       </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -9195,7 +8875,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/04/01 11:47:48</t>
+          <t>2025/04/01 11:47:19</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9210,7 +8890,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>黃建志</t>
+          <t>張豪</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9225,16 +8905,20 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>現金存入</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>測試備註</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>18800</v>
+        <v>41000</v>
       </c>
       <c r="K169" t="n">
-        <v>1604600</v>
+        <v>2061600</v>
       </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
@@ -9242,7 +8926,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/04/01 11:48:25</t>
+          <t>2025/04/01 11:48:26</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9257,7 +8941,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>洪心怡</t>
+          <t>林佳穎</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9272,16 +8956,16 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>6400</v>
+        <v>8300</v>
       </c>
       <c r="K170" t="n">
-        <v>1611000</v>
+        <v>2069900</v>
       </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
@@ -9289,7 +8973,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/04/01 11:49:43</t>
+          <t>2025/04/01 11:49:33</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9304,7 +8988,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>鄭淑芬</t>
+          <t>許冠宇</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9319,20 +9003,16 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>自動扣繳</t>
-        </is>
-      </c>
-      <c r="I171" t="n">
-        <v>16400</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>28100</v>
+      </c>
       <c r="K171" t="n">
-        <v>1594600</v>
+        <v>2098000</v>
       </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
@@ -9340,7 +9020,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/04/01 11:50:43</t>
+          <t>2025/04/01 11:50:40</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9355,7 +9035,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>廖欣怡</t>
+          <t>廖家豪</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9375,15 +9055,15 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
+          <t>測試備註</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>31800</v>
+        <v>43300</v>
       </c>
       <c r="K172" t="n">
-        <v>1626400</v>
+        <v>2141300</v>
       </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
@@ -9391,7 +9071,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/04/01 11:51:39</t>
+          <t>2025/04/01 11:51:47</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9406,7 +9086,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>郭淑芬</t>
+          <t>謝淑芬</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9421,32 +9101,28 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>跨行提款</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr"/>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>測試備註</t>
+        </is>
+      </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>46600</v>
+        <v>19600</v>
       </c>
       <c r="K173" t="n">
-        <v>1673000</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>000000735132</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>楊佩君</t>
-        </is>
-      </c>
+        <v>2160900</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/04/01 11:52:08</t>
+          <t>2025/04/01 11:52:04</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9461,7 +9137,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>廖俊傑</t>
+          <t>劉志偉</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9476,36 +9152,24 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>轉帳</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25300</v>
-      </c>
+          <t>網購扣款</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>15200</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>1698300</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>000000121761</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>張宗翰</t>
-        </is>
-      </c>
+        <v>2145700</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/04/01 11:53:24</t>
+          <t>2025/04/01 11:53:11</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9520,7 +9184,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>賴郁婷</t>
+          <t>楊淑芬</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9535,16 +9199,20 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr"/>
+          <t>代繳水費</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>自動扣繳</t>
+        </is>
+      </c>
       <c r="I175" t="n">
-        <v>10800</v>
+        <v>7200</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>1687500</v>
+        <v>2138500</v>
       </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -9552,7 +9220,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/04/01 11:54:46</t>
+          <t>2025/04/01 11:54:18</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9567,7 +9235,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>曾美惠</t>
+          <t>林淑芬</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9585,17 +9253,13 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>聚餐</t>
-        </is>
-      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>42700</v>
+        <v>18100</v>
       </c>
       <c r="K176" t="n">
-        <v>1730200</v>
+        <v>2156600</v>
       </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -9603,7 +9267,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/04/01 11:55:26</t>
+          <t>2025/04/01 11:55:25</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9618,7 +9282,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>鄭淑芬</t>
+          <t>洪淑惠</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9633,7 +9297,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>轉帳</t>
+          <t>網購扣款</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9642,27 +9306,19 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>5600</v>
+        <v>900</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>1724600</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>000000464920</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>洪宗翰</t>
-        </is>
-      </c>
+        <v>2155700</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/04/01 11:56:43</t>
+          <t>2025/04/01 11:56:32</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9677,7 +9333,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>謝家豪</t>
+          <t>鄭志明</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9695,17 +9351,13 @@
           <t>信用卡款</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>23100</v>
+      </c>
       <c r="K178" t="n">
-        <v>1723000</v>
+        <v>2178800</v>
       </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr"/>
@@ -9713,7 +9365,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/04/01 11:57:12</t>
+          <t>2025/04/01 11:57:39</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9728,7 +9380,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>吳佩君</t>
+          <t>郭雅婷</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9743,20 +9395,20 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>信用卡款</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>還款</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>34000</v>
-      </c>
+          <t>UberEats</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>4900</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>1757000</v>
+        <v>2173900</v>
       </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
@@ -9764,7 +9416,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/04/01 11:58:40</t>
+          <t>2025/04/01 11:58:46</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9779,7 +9431,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>黃俊宏</t>
+          <t>許心怡</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9794,36 +9446,24 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>轉帳</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12500</v>
-      </c>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>1769500</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>000000132040</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>賴冠宇</t>
-        </is>
-      </c>
+        <v>2172800</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/04/01 11:59:48</t>
+          <t>2025/04/01 11:59:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9838,7 +9478,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>劉欣怡</t>
+          <t>賴俊傑</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9858,15 +9498,15 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>不明</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>41700</v>
-      </c>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>5100</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>1811200</v>
+        <v>2167700</v>
       </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
@@ -9874,7 +9514,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/04/01 12:00:49</t>
+          <t>2025/04/01 12:00:10</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9889,7 +9529,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>李俊傑</t>
+          <t>曾俊宏</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9909,15 +9549,15 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>網拍轉帳</t>
+          <t>手續費</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>14200</v>
+        <v>17200</v>
       </c>
       <c r="K182" t="n">
-        <v>1825400</v>
+        <v>2184900</v>
       </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
@@ -9925,7 +9565,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/04/01 12:01:34</t>
+          <t>2025/04/01 12:01:17</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9940,7 +9580,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>陳俊傑</t>
+          <t>吳豪</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9955,20 +9595,20 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I183" t="n">
-        <v>17000</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>45400</v>
+      </c>
       <c r="K183" t="n">
-        <v>1808400</v>
+        <v>2230300</v>
       </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -9976,7 +9616,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/04/01 12:02:00</t>
+          <t>2025/04/01 12:02:24</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9991,7 +9631,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>王家豪</t>
+          <t>廖冠志</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10006,20 +9646,20 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I184" t="n">
-        <v>500</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3200</v>
+      </c>
       <c r="K184" t="n">
-        <v>1807900</v>
+        <v>2233500</v>
       </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -10027,7 +9667,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/04/01 12:03:03</t>
+          <t>2025/04/01 12:03:31</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10042,7 +9682,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>黃雅雯</t>
+          <t>郭冠志</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10060,13 +9700,17 @@
           <t>現金存入</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>網拍轉帳</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>5900</v>
+        <v>24800</v>
       </c>
       <c r="K185" t="n">
-        <v>1813800</v>
+        <v>2258300</v>
       </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
@@ -10074,7 +9718,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/04/01 12:04:28</t>
+          <t>2025/04/01 12:04:38</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10089,7 +9733,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>邱宗翰</t>
+          <t>黃家豪</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10104,20 +9748,20 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I186" t="n">
-        <v>11600</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>30300</v>
+      </c>
       <c r="K186" t="n">
-        <v>1802200</v>
+        <v>2288600</v>
       </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -10125,7 +9769,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/04/01 12:05:39</t>
+          <t>2025/04/01 12:05:45</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10140,7 +9784,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>陳志明</t>
+          <t>洪家豪</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10155,20 +9799,20 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>信用卡款</t>
+          <t>跨行提款</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>PChome</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>23500</v>
-      </c>
+          <t>不明</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>1825700</v>
+        <v>2287600</v>
       </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
@@ -10176,7 +9820,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/04/01 12:06:30</t>
+          <t>2025/04/01 12:06:02</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10191,7 +9835,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>洪美玲</t>
+          <t>黃承恩</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10206,20 +9850,20 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>代繳水費</t>
+          <t>現金存入</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I188" t="n">
-        <v>12600</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+          <t>還款</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>15100</v>
+      </c>
       <c r="K188" t="n">
-        <v>1813100</v>
+        <v>2302700</v>
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
@@ -10227,7 +9871,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/04/01 12:07:05</t>
+          <t>2025/04/01 12:07:09</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10242,7 +9886,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>李家豪</t>
+          <t>李惠君</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10257,20 +9901,20 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>買書</t>
+          <t>Foodpanda</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1700</v>
+        <v>10900</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>1811400</v>
+        <v>2291800</v>
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
@@ -10278,7 +9922,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/04/01 12:08:39</t>
+          <t>2025/04/01 12:08:16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10293,7 +9937,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>洪建宏</t>
+          <t>洪美玲</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10308,16 +9952,20 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>代繳水費</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr"/>
+          <t>代繳電費</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>蝦皮購物</t>
+        </is>
+      </c>
       <c r="I190" t="n">
-        <v>7600</v>
+        <v>8700</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>1803800</v>
+        <v>2283100</v>
       </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
@@ -10325,7 +9973,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/04/01 12:09:38</t>
+          <t>2025/04/01 12:09:23</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -10340,7 +9988,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>吳承恩</t>
+          <t>蔡冠志</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10355,36 +10003,28 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>跨行提款</t>
+          <t>一般消費</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>聚餐</t>
+          <t>UberEats</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>16800</v>
+        <v>18800</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>1787000</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>000000682535</t>
-        </is>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>廖郁婷</t>
-        </is>
-      </c>
+        <v>2264300</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/04/01 12:10:28</t>
+          <t>2025/04/01 12:10:30</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10399,7 +10039,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>洪志偉</t>
+          <t>劉承翰</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10414,20 +10054,20 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>現金存入</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>UberEats</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>42400</v>
-      </c>
+          <t>手續費</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>6200</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>1829400</v>
+        <v>2258100</v>
       </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
@@ -10435,7 +10075,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/04/01 12:11:26</t>
+          <t>2025/04/01 12:11:37</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10450,7 +10090,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>蔡心怡</t>
+          <t>曾宇軒</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10470,15 +10110,15 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>自動扣繳</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>16100</v>
+        <v>43100</v>
       </c>
       <c r="K193" t="n">
-        <v>1845500</v>
+        <v>2301200</v>
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
@@ -10486,7 +10126,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/04/01 12:12:09</t>
+          <t>2025/04/01 12:12:44</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10501,7 +10141,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>鄭建志</t>
+          <t>張淑芬</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10521,31 +10161,23 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>還款</t>
+          <t>手續費</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>1843300</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>000000097758</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>郭淑芬</t>
-        </is>
-      </c>
+        <v>2299900</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/04/01 12:13:08</t>
+          <t>2025/04/01 12:13:01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10560,7 +10192,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>許惠君</t>
+          <t>張郁婷</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10575,16 +10207,20 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>28800</v>
-      </c>
+          <t>代繳電費</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>繳房租</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>6800</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>1872100</v>
+        <v>2293100</v>
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
@@ -10592,7 +10228,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/04/01 12:14:07</t>
+          <t>2025/04/01 12:14:08</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10607,7 +10243,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>林佳穎</t>
+          <t>鄭惠君</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10622,20 +10258,20 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>手續費</t>
+          <t>網拍轉帳</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>18500</v>
+        <v>6500</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>1853600</v>
+        <v>2286600</v>
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
@@ -10643,7 +10279,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/04/01 12:15:38</t>
+          <t>2025/04/01 12:15:15</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10658,7 +10294,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>邱冠宇</t>
+          <t>李心怡</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10673,20 +10309,16 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I197" t="n">
-        <v>14800</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+          <t>現金存入</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>21400</v>
+      </c>
       <c r="K197" t="n">
-        <v>1838800</v>
+        <v>2308000</v>
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
@@ -10694,7 +10326,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/04/01 12:16:09</t>
+          <t>2025/04/01 12:16:22</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10709,7 +10341,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>廖心怡</t>
+          <t>徐志偉</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10724,20 +10356,16 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>一般消費</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>聚餐</t>
-        </is>
-      </c>
-      <c r="I198" t="n">
-        <v>9000</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+          <t>薪資轉帳</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>40400</v>
+      </c>
       <c r="K198" t="n">
-        <v>1829800</v>
+        <v>2348400</v>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
@@ -10745,7 +10373,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/04/01 12:17:07</t>
+          <t>2025/04/01 12:17:29</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10760,7 +10388,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>廖詩涵</t>
+          <t>許美玲</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10775,20 +10403,20 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>代繳水費</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>測試備註</t>
+          <t>蝦皮購物</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>11000</v>
+        <v>12400</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>1818800</v>
+        <v>2336000</v>
       </c>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
@@ -10796,7 +10424,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/04/01 12:18:39</t>
+          <t>2025/04/01 12:18:36</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10811,7 +10439,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>王家豪</t>
+          <t>陳冠志</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10826,20 +10454,16 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>蝦皮購物</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1500</v>
-      </c>
+          <t>信用卡款</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>12300</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>1820300</v>
+        <v>2323700</v>
       </c>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
@@ -10847,7 +10471,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/04/01 12:19:44</t>
+          <t>2025/04/01 12:19:43</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10862,7 +10486,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>王承翰</t>
+          <t>張宗翰</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10877,20 +10501,20 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>一般消費</t>
+          <t>轉帳</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Foodpanda</t>
-        </is>
-      </c>
-      <c r="I201" t="n">
-        <v>200</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+          <t>PChome</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>16900</v>
+      </c>
       <c r="K201" t="n">
-        <v>1820100</v>
+        <v>2340600</v>
       </c>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
